--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.05319455862177</v>
+        <v>1.060898</v>
       </c>
       <c r="H2">
-        <v>1.05319455862177</v>
+        <v>3.182694</v>
       </c>
       <c r="I2">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="J2">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.33799865092011</v>
+        <v>9.455973333333334</v>
       </c>
       <c r="N2">
-        <v>9.33799865092011</v>
+        <v>28.36792</v>
       </c>
       <c r="O2">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="P2">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="Q2">
-        <v>9.834729367566489</v>
+        <v>10.03182319738667</v>
       </c>
       <c r="R2">
-        <v>9.834729367566489</v>
+        <v>90.28640877648</v>
       </c>
       <c r="S2">
-        <v>0.01901698086441563</v>
+        <v>0.01795323198128545</v>
       </c>
       <c r="T2">
-        <v>0.01901698086441563</v>
+        <v>0.01795323198128545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.05319455862177</v>
+        <v>1.060898</v>
       </c>
       <c r="H3">
-        <v>1.05319455862177</v>
+        <v>3.182694</v>
       </c>
       <c r="I3">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="J3">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.4368808313739</v>
+        <v>28.65257633333333</v>
       </c>
       <c r="N3">
-        <v>28.4368808313739</v>
+        <v>85.957729</v>
       </c>
       <c r="O3">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872841</v>
       </c>
       <c r="P3">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872843</v>
       </c>
       <c r="Q3">
-        <v>29.94956815577871</v>
+        <v>30.39746092688067</v>
       </c>
       <c r="R3">
-        <v>29.94956815577871</v>
+        <v>273.577148341926</v>
       </c>
       <c r="S3">
-        <v>0.05791215428807324</v>
+        <v>0.05440014810114619</v>
       </c>
       <c r="T3">
-        <v>0.05791215428807324</v>
+        <v>0.0544001481011462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.05319455862177</v>
+        <v>1.060898</v>
       </c>
       <c r="H4">
-        <v>1.05319455862177</v>
+        <v>3.182694</v>
       </c>
       <c r="I4">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="J4">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.175994521204277</v>
+        <v>0.1785286666666667</v>
       </c>
       <c r="N4">
-        <v>0.175994521204277</v>
+        <v>0.535586</v>
       </c>
       <c r="O4">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260938</v>
       </c>
       <c r="P4">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260939</v>
       </c>
       <c r="Q4">
-        <v>0.1853564720795882</v>
+        <v>0.1894007054093333</v>
       </c>
       <c r="R4">
-        <v>0.1853564720795882</v>
+        <v>1.704606348684</v>
       </c>
       <c r="S4">
-        <v>0.0003584156056452145</v>
+        <v>0.0003389568112124098</v>
       </c>
       <c r="T4">
-        <v>0.0003584156056452145</v>
+        <v>0.0003389568112124098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.05319455862177</v>
+        <v>1.060898</v>
       </c>
       <c r="H5">
-        <v>1.05319455862177</v>
+        <v>3.182694</v>
       </c>
       <c r="I5">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="J5">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.296871955812567</v>
+        <v>0.3136543333333333</v>
       </c>
       <c r="N5">
-        <v>0.296871955812567</v>
+        <v>0.940963</v>
       </c>
       <c r="O5">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628402</v>
       </c>
       <c r="P5">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628403</v>
       </c>
       <c r="Q5">
-        <v>0.312663928469198</v>
+        <v>0.3327552549246667</v>
       </c>
       <c r="R5">
-        <v>0.312663928469198</v>
+        <v>2.994797294322</v>
       </c>
       <c r="S5">
-        <v>0.0006045843990685247</v>
+        <v>0.0005955081311850249</v>
       </c>
       <c r="T5">
-        <v>0.0006045843990685247</v>
+        <v>0.000595508131185025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.05319455862177</v>
+        <v>1.060898</v>
       </c>
       <c r="H6">
-        <v>1.05319455862177</v>
+        <v>3.182694</v>
       </c>
       <c r="I6">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="J6">
-        <v>0.0913790797293192</v>
+        <v>0.08679151083779232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.62255860261808</v>
+        <v>7.112385333333333</v>
       </c>
       <c r="N6">
-        <v>6.62255860261808</v>
+        <v>21.337156</v>
       </c>
       <c r="O6">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="P6">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="Q6">
-        <v>6.974842684431153</v>
+        <v>7.545515375362667</v>
       </c>
       <c r="R6">
-        <v>6.974842684431153</v>
+        <v>67.90963837826401</v>
       </c>
       <c r="S6">
-        <v>0.0134869445721166</v>
+        <v>0.01350366581296325</v>
       </c>
       <c r="T6">
-        <v>0.0134869445721166</v>
+        <v>0.01350366581296325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.69196211084735</v>
+        <v>1.726533333333333</v>
       </c>
       <c r="H7">
-        <v>1.69196211084735</v>
+        <v>5.179600000000001</v>
       </c>
       <c r="I7">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="J7">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.33799865092011</v>
+        <v>9.455973333333334</v>
       </c>
       <c r="N7">
-        <v>9.33799865092011</v>
+        <v>28.36792</v>
       </c>
       <c r="O7">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="P7">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="Q7">
-        <v>15.7995399085005</v>
+        <v>16.32605315911112</v>
       </c>
       <c r="R7">
-        <v>15.7995399085005</v>
+        <v>146.934478432</v>
       </c>
       <c r="S7">
-        <v>0.03055087098760409</v>
+        <v>0.02921756234506556</v>
       </c>
       <c r="T7">
-        <v>0.03055087098760409</v>
+        <v>0.02921756234506557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.69196211084735</v>
+        <v>1.726533333333333</v>
       </c>
       <c r="H8">
-        <v>1.69196211084735</v>
+        <v>5.179600000000001</v>
       </c>
       <c r="I8">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="J8">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.4368808313739</v>
+        <v>28.65257633333333</v>
       </c>
       <c r="N8">
-        <v>28.4368808313739</v>
+        <v>85.957729</v>
       </c>
       <c r="O8">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872841</v>
       </c>
       <c r="P8">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872843</v>
       </c>
       <c r="Q8">
-        <v>48.11412491736593</v>
+        <v>49.46962812537778</v>
       </c>
       <c r="R8">
-        <v>48.11412491736593</v>
+        <v>445.2266531284001</v>
       </c>
       <c r="S8">
-        <v>0.09303615368198542</v>
+        <v>0.08853223310336991</v>
       </c>
       <c r="T8">
-        <v>0.09303615368198542</v>
+        <v>0.08853223310336994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.69196211084735</v>
+        <v>1.726533333333333</v>
       </c>
       <c r="H9">
-        <v>1.69196211084735</v>
+        <v>5.179600000000001</v>
       </c>
       <c r="I9">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="J9">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.175994521204277</v>
+        <v>0.1785286666666667</v>
       </c>
       <c r="N9">
-        <v>0.175994521204277</v>
+        <v>0.535586</v>
       </c>
       <c r="O9">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260938</v>
       </c>
       <c r="P9">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260939</v>
       </c>
       <c r="Q9">
-        <v>0.2977760615943572</v>
+        <v>0.3082356939555556</v>
       </c>
       <c r="R9">
-        <v>0.2977760615943572</v>
+        <v>2.7741212456</v>
       </c>
       <c r="S9">
-        <v>0.0005757963898728154</v>
+        <v>0.0005516272376030488</v>
       </c>
       <c r="T9">
-        <v>0.0005757963898728154</v>
+        <v>0.000551627237603049</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.69196211084735</v>
+        <v>1.726533333333333</v>
       </c>
       <c r="H10">
-        <v>1.69196211084735</v>
+        <v>5.179600000000001</v>
       </c>
       <c r="I10">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="J10">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.296871955812567</v>
+        <v>0.3136543333333333</v>
       </c>
       <c r="N10">
-        <v>0.296871955812567</v>
+        <v>0.940963</v>
       </c>
       <c r="O10">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628402</v>
       </c>
       <c r="P10">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628403</v>
       </c>
       <c r="Q10">
-        <v>0.502296101008012</v>
+        <v>0.5415346616444444</v>
       </c>
       <c r="R10">
-        <v>0.502296101008012</v>
+        <v>4.873811954800001</v>
       </c>
       <c r="S10">
-        <v>0.0009712677374368397</v>
+        <v>0.000969145609438405</v>
       </c>
       <c r="T10">
-        <v>0.0009712677374368397</v>
+        <v>0.0009691456094384054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.69196211084735</v>
+        <v>1.726533333333333</v>
       </c>
       <c r="H11">
-        <v>1.69196211084735</v>
+        <v>5.179600000000001</v>
       </c>
       <c r="I11">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="J11">
-        <v>0.1468009299520429</v>
+        <v>0.1412467895234129</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.62255860261808</v>
+        <v>7.112385333333333</v>
       </c>
       <c r="N11">
-        <v>6.62255860261808</v>
+        <v>21.337156</v>
       </c>
       <c r="O11">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="P11">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="Q11">
-        <v>11.20511823249596</v>
+        <v>12.27977035751111</v>
       </c>
       <c r="R11">
-        <v>11.20511823249596</v>
+        <v>110.5179332176</v>
       </c>
       <c r="S11">
-        <v>0.02166684115514374</v>
+        <v>0.02197622122793598</v>
       </c>
       <c r="T11">
-        <v>0.02166684115514374</v>
+        <v>0.02197622122793598</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.1318733145837</v>
+        <v>3.138096</v>
       </c>
       <c r="H12">
-        <v>3.1318733145837</v>
+        <v>9.414287999999999</v>
       </c>
       <c r="I12">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="J12">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.33799865092011</v>
+        <v>9.455973333333334</v>
       </c>
       <c r="N12">
-        <v>9.33799865092011</v>
+        <v>28.36792</v>
       </c>
       <c r="O12">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="P12">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="Q12">
-        <v>29.24542878643528</v>
+        <v>29.67375209344</v>
       </c>
       <c r="R12">
-        <v>29.24542878643528</v>
+        <v>267.06376884096</v>
       </c>
       <c r="S12">
-        <v>0.05655059115682472</v>
+        <v>0.05310497848760571</v>
       </c>
       <c r="T12">
-        <v>0.05655059115682472</v>
+        <v>0.05310497848760571</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.1318733145837</v>
+        <v>3.138096</v>
       </c>
       <c r="H13">
-        <v>3.1318733145837</v>
+        <v>9.414287999999999</v>
       </c>
       <c r="I13">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="J13">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.4368808313739</v>
+        <v>28.65257633333333</v>
       </c>
       <c r="N13">
-        <v>28.4368808313739</v>
+        <v>85.957729</v>
       </c>
       <c r="O13">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872841</v>
       </c>
       <c r="P13">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872843</v>
       </c>
       <c r="Q13">
-        <v>89.06070822577666</v>
+        <v>89.91453518132798</v>
       </c>
       <c r="R13">
-        <v>89.06070822577666</v>
+        <v>809.2308166319519</v>
       </c>
       <c r="S13">
-        <v>0.1722127494109154</v>
+        <v>0.1609135724222446</v>
       </c>
       <c r="T13">
-        <v>0.1722127494109154</v>
+        <v>0.1609135724222446</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.1318733145837</v>
+        <v>3.138096</v>
       </c>
       <c r="H14">
-        <v>3.1318733145837</v>
+        <v>9.414287999999999</v>
       </c>
       <c r="I14">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="J14">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.175994521204277</v>
+        <v>0.1785286666666667</v>
       </c>
       <c r="N14">
-        <v>0.175994521204277</v>
+        <v>0.535586</v>
       </c>
       <c r="O14">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260938</v>
       </c>
       <c r="P14">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260939</v>
       </c>
       <c r="Q14">
-        <v>0.5511925444726103</v>
+        <v>0.5602400947519999</v>
       </c>
       <c r="R14">
-        <v>0.5511925444726103</v>
+        <v>5.042160852767999</v>
       </c>
       <c r="S14">
-        <v>0.001065816625865921</v>
+        <v>0.001002621376832097</v>
       </c>
       <c r="T14">
-        <v>0.001065816625865921</v>
+        <v>0.001002621376832097</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.1318733145837</v>
+        <v>3.138096</v>
       </c>
       <c r="H15">
-        <v>3.1318733145837</v>
+        <v>9.414287999999999</v>
       </c>
       <c r="I15">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="J15">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.296871955812567</v>
+        <v>0.3136543333333333</v>
       </c>
       <c r="N15">
-        <v>0.296871955812567</v>
+        <v>0.940963</v>
       </c>
       <c r="O15">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628402</v>
       </c>
       <c r="P15">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628403</v>
       </c>
       <c r="Q15">
-        <v>0.9297653562576499</v>
+        <v>0.9842774088159998</v>
       </c>
       <c r="R15">
-        <v>0.9297653562576499</v>
+        <v>8.858496679343999</v>
       </c>
       <c r="S15">
-        <v>0.001797846115283942</v>
+        <v>0.00176149043964566</v>
       </c>
       <c r="T15">
-        <v>0.001797846115283942</v>
+        <v>0.00176149043964566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.1318733145837</v>
+        <v>3.138096</v>
       </c>
       <c r="H16">
-        <v>3.1318733145837</v>
+        <v>9.414287999999999</v>
       </c>
       <c r="I16">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="J16">
-        <v>0.2717329851095905</v>
+        <v>0.2567259934452065</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.62255860261808</v>
+        <v>7.112385333333333</v>
       </c>
       <c r="N16">
-        <v>6.62255860261808</v>
+        <v>21.337156</v>
       </c>
       <c r="O16">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="P16">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="Q16">
-        <v>20.74101456180628</v>
+        <v>22.31934796499199</v>
       </c>
       <c r="R16">
-        <v>20.74101456180628</v>
+        <v>200.874131684928</v>
       </c>
       <c r="S16">
-        <v>0.04010598180070047</v>
+        <v>0.03994333071887847</v>
       </c>
       <c r="T16">
-        <v>0.04010598180070047</v>
+        <v>0.03994333071887847</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.61116501167544</v>
+        <v>3.81368</v>
       </c>
       <c r="H17">
-        <v>3.61116501167544</v>
+        <v>11.44104</v>
       </c>
       <c r="I17">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="J17">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.33799865092011</v>
+        <v>9.455973333333334</v>
       </c>
       <c r="N17">
-        <v>9.33799865092011</v>
+        <v>28.36792</v>
       </c>
       <c r="O17">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="P17">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="Q17">
-        <v>33.72105400727516</v>
+        <v>36.06205638186667</v>
       </c>
       <c r="R17">
-        <v>33.72105400727516</v>
+        <v>324.5585074368</v>
       </c>
       <c r="S17">
-        <v>0.06520490954220885</v>
+        <v>0.06453766690331084</v>
       </c>
       <c r="T17">
-        <v>0.06520490954220885</v>
+        <v>0.06453766690331084</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.61116501167544</v>
+        <v>3.81368</v>
       </c>
       <c r="H18">
-        <v>3.61116501167544</v>
+        <v>11.44104</v>
       </c>
       <c r="I18">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="J18">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.4368808313739</v>
+        <v>28.65257633333333</v>
       </c>
       <c r="N18">
-        <v>28.4368808313739</v>
+        <v>85.957729</v>
       </c>
       <c r="O18">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872841</v>
       </c>
       <c r="P18">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872843</v>
       </c>
       <c r="Q18">
-        <v>102.6902690994414</v>
+        <v>109.2717573109067</v>
       </c>
       <c r="R18">
-        <v>102.6902690994414</v>
+        <v>983.44581579816</v>
       </c>
       <c r="S18">
-        <v>0.1985676279884239</v>
+        <v>0.1955557997190863</v>
       </c>
       <c r="T18">
-        <v>0.1985676279884239</v>
+        <v>0.1955557997190863</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.61116501167544</v>
+        <v>3.81368</v>
       </c>
       <c r="H19">
-        <v>3.61116501167544</v>
+        <v>11.44104</v>
       </c>
       <c r="I19">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="J19">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.175994521204277</v>
+        <v>0.1785286666666667</v>
       </c>
       <c r="N19">
-        <v>0.175994521204277</v>
+        <v>0.535586</v>
       </c>
       <c r="O19">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260938</v>
       </c>
       <c r="P19">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260939</v>
       </c>
       <c r="Q19">
-        <v>0.6355452572194564</v>
+        <v>0.6808512054933333</v>
       </c>
       <c r="R19">
-        <v>0.6355452572194564</v>
+        <v>6.12766084944</v>
       </c>
       <c r="S19">
-        <v>0.001228925732808764</v>
+        <v>0.001218470401286969</v>
       </c>
       <c r="T19">
-        <v>0.001228925732808764</v>
+        <v>0.001218470401286969</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.61116501167544</v>
+        <v>3.81368</v>
       </c>
       <c r="H20">
-        <v>3.61116501167544</v>
+        <v>11.44104</v>
       </c>
       <c r="I20">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="J20">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.296871955812567</v>
+        <v>0.3136543333333333</v>
       </c>
       <c r="N20">
-        <v>0.296871955812567</v>
+        <v>0.940963</v>
       </c>
       <c r="O20">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628402</v>
       </c>
       <c r="P20">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628403</v>
       </c>
       <c r="Q20">
-        <v>1.072053619777999</v>
+        <v>1.196177257946667</v>
       </c>
       <c r="R20">
-        <v>1.072053619777999</v>
+        <v>10.76559532152</v>
       </c>
       <c r="S20">
-        <v>0.002072982632361987</v>
+        <v>0.002140712349102087</v>
       </c>
       <c r="T20">
-        <v>0.002072982632361987</v>
+        <v>0.002140712349102087</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.61116501167544</v>
+        <v>3.81368</v>
       </c>
       <c r="H21">
-        <v>3.61116501167544</v>
+        <v>11.44104</v>
       </c>
       <c r="I21">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="J21">
-        <v>0.3133181165970345</v>
+        <v>0.3119951673505575</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.62255860261808</v>
+        <v>7.112385333333333</v>
       </c>
       <c r="N21">
-        <v>6.62255860261808</v>
+        <v>21.337156</v>
       </c>
       <c r="O21">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="P21">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="Q21">
-        <v>23.9151519135446</v>
+        <v>27.12436169802666</v>
       </c>
       <c r="R21">
-        <v>23.9151519135446</v>
+        <v>244.11925528224</v>
       </c>
       <c r="S21">
-        <v>0.04624367070123101</v>
+        <v>0.04854251797777138</v>
       </c>
       <c r="T21">
-        <v>0.04624367070123101</v>
+        <v>0.04854251797777138</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.03735945001048</v>
+        <v>2.484315333333333</v>
       </c>
       <c r="H22">
-        <v>2.03735945001048</v>
+        <v>7.452946</v>
       </c>
       <c r="I22">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="J22">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.33799865092011</v>
+        <v>9.455973333333334</v>
       </c>
       <c r="N22">
-        <v>9.33799865092011</v>
+        <v>28.36792</v>
       </c>
       <c r="O22">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="P22">
-        <v>0.2081108818424003</v>
+        <v>0.2068547005114229</v>
       </c>
       <c r="Q22">
-        <v>19.0248597956372</v>
+        <v>23.49161954359111</v>
       </c>
       <c r="R22">
-        <v>19.0248597956372</v>
+        <v>211.42457589232</v>
       </c>
       <c r="S22">
-        <v>0.03678752929134702</v>
+        <v>0.04204126079415534</v>
       </c>
       <c r="T22">
-        <v>0.03678752929134702</v>
+        <v>0.04204126079415534</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.03735945001048</v>
+        <v>2.484315333333333</v>
       </c>
       <c r="H23">
-        <v>2.03735945001048</v>
+        <v>7.452946</v>
       </c>
       <c r="I23">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="J23">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>28.4368808313739</v>
+        <v>28.65257633333333</v>
       </c>
       <c r="N23">
-        <v>28.4368808313739</v>
+        <v>85.957729</v>
       </c>
       <c r="O23">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872841</v>
       </c>
       <c r="P23">
-        <v>0.633757250123542</v>
+        <v>0.6267911178872843</v>
       </c>
       <c r="Q23">
-        <v>57.93614789062149</v>
+        <v>71.18203472440378</v>
       </c>
       <c r="R23">
-        <v>57.93614789062149</v>
+        <v>640.638312519634</v>
       </c>
       <c r="S23">
-        <v>0.1120285647541439</v>
+        <v>0.1273893645414372</v>
       </c>
       <c r="T23">
-        <v>0.1120285647541439</v>
+        <v>0.1273893645414373</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.03735945001048</v>
+        <v>2.484315333333333</v>
       </c>
       <c r="H24">
-        <v>2.03735945001048</v>
+        <v>7.452946</v>
       </c>
       <c r="I24">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="J24">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.175994521204277</v>
+        <v>0.1785286666666667</v>
       </c>
       <c r="N24">
-        <v>0.175994521204277</v>
+        <v>0.535586</v>
       </c>
       <c r="O24">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260938</v>
       </c>
       <c r="P24">
-        <v>0.003922293885065423</v>
+        <v>0.003905414342260939</v>
       </c>
       <c r="Q24">
-        <v>0.3585641009256035</v>
+        <v>0.4435215040395556</v>
       </c>
       <c r="R24">
-        <v>0.3585641009256035</v>
+        <v>3.991693536356</v>
       </c>
       <c r="S24">
-        <v>0.0006933395308727086</v>
+        <v>0.0007937385153264136</v>
       </c>
       <c r="T24">
-        <v>0.0006933395308727086</v>
+        <v>0.0007937385153264137</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.03735945001048</v>
+        <v>2.484315333333333</v>
       </c>
       <c r="H25">
-        <v>2.03735945001048</v>
+        <v>7.452946</v>
       </c>
       <c r="I25">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="J25">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.296871955812567</v>
+        <v>0.3136543333333333</v>
       </c>
       <c r="N25">
-        <v>0.296871955812567</v>
+        <v>0.940963</v>
       </c>
       <c r="O25">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628402</v>
       </c>
       <c r="P25">
-        <v>0.006616223328790455</v>
+        <v>0.006861363806628403</v>
       </c>
       <c r="Q25">
-        <v>0.604834884617827</v>
+        <v>0.7792162696664444</v>
       </c>
       <c r="R25">
-        <v>0.604834884617827</v>
+        <v>7.012946426998</v>
       </c>
       <c r="S25">
-        <v>0.00116954244463916</v>
+        <v>0.001394507277257225</v>
       </c>
       <c r="T25">
-        <v>0.00116954244463916</v>
+        <v>0.001394507277257225</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.03735945001048</v>
+        <v>2.484315333333333</v>
       </c>
       <c r="H26">
-        <v>2.03735945001048</v>
+        <v>7.452946</v>
       </c>
       <c r="I26">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="J26">
-        <v>0.1767688886120128</v>
+        <v>0.2032405388430308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.62255860261808</v>
+        <v>7.112385333333333</v>
       </c>
       <c r="N26">
-        <v>6.62255860261808</v>
+        <v>21.337156</v>
       </c>
       <c r="O26">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="P26">
-        <v>0.1475933508202018</v>
+        <v>0.1555874034524036</v>
       </c>
       <c r="Q26">
-        <v>13.49253235229214</v>
+        <v>17.66940794017511</v>
       </c>
       <c r="R26">
-        <v>13.49253235229214</v>
+        <v>159.024671461576</v>
       </c>
       <c r="S26">
-        <v>0.02608991259100998</v>
+        <v>0.03162166771485453</v>
       </c>
       <c r="T26">
-        <v>0.02608991259100998</v>
+        <v>0.03162166771485453</v>
       </c>
     </row>
   </sheetData>
